--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,18 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr2a</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H2">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N2">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q2">
-        <v>2.036964205382448</v>
+        <v>16.50833312082111</v>
       </c>
       <c r="R2">
-        <v>2.036964205382448</v>
+        <v>148.57499808739</v>
       </c>
       <c r="S2">
-        <v>0.1577967194968277</v>
+        <v>0.05350784088091295</v>
       </c>
       <c r="T2">
-        <v>0.1577967194968277</v>
+        <v>0.05350784088091295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H3">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N3">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q3">
-        <v>5.376041031307274</v>
+        <v>41.19323083168378</v>
       </c>
       <c r="R3">
-        <v>5.376041031307274</v>
+        <v>370.739077485154</v>
       </c>
       <c r="S3">
-        <v>0.4164636945406485</v>
+        <v>0.1335180738467446</v>
       </c>
       <c r="T3">
-        <v>0.4164636945406485</v>
+        <v>0.1335180738467446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H4">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N4">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q4">
-        <v>0.9687351807964871</v>
+        <v>8.958422094724666</v>
       </c>
       <c r="R4">
-        <v>0.9687351807964871</v>
+        <v>80.625798852522</v>
       </c>
       <c r="S4">
-        <v>0.07504463416044729</v>
+        <v>0.02903659748566668</v>
       </c>
       <c r="T4">
-        <v>0.07504463416044729</v>
+        <v>0.02903659748566668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H5">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N5">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q5">
-        <v>1.17299710991269</v>
+        <v>9.104915265141113</v>
       </c>
       <c r="R5">
-        <v>1.17299710991269</v>
+        <v>81.94423738627</v>
       </c>
       <c r="S5">
-        <v>0.09086811414475987</v>
+        <v>0.02951142030365897</v>
       </c>
       <c r="T5">
-        <v>0.09086811414475987</v>
+        <v>0.02951142030365897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H6">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N6">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q6">
-        <v>0.7723302114082214</v>
+        <v>5.962070039757221</v>
       </c>
       <c r="R6">
-        <v>0.7723302114082214</v>
+        <v>53.65863035781499</v>
       </c>
       <c r="S6">
-        <v>0.05982980624130654</v>
+        <v>0.01932463396960577</v>
       </c>
       <c r="T6">
-        <v>0.05982980624130654</v>
+        <v>0.01932463396960577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.514214333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.542643</v>
+      </c>
+      <c r="I7">
+        <v>0.3482435661103787</v>
+      </c>
+      <c r="J7">
+        <v>0.3482435661103787</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.981576</v>
+      </c>
+      <c r="N7">
+        <v>50.944728</v>
+      </c>
+      <c r="O7">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P7">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q7">
+        <v>25.71374578178933</v>
+      </c>
+      <c r="R7">
+        <v>231.423712036104</v>
+      </c>
+      <c r="S7">
+        <v>0.08334499962378968</v>
+      </c>
+      <c r="T7">
+        <v>0.08334499962378969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.340208</v>
+      </c>
+      <c r="I8">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J8">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N8">
+        <v>32.70673</v>
+      </c>
+      <c r="O8">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P8">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q8">
+        <v>1.236343466648889</v>
+      </c>
+      <c r="R8">
+        <v>11.12709119984</v>
+      </c>
+      <c r="S8">
+        <v>0.004007313700507311</v>
+      </c>
+      <c r="T8">
+        <v>0.004007313700507311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.340208</v>
+      </c>
+      <c r="I9">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J9">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N9">
+        <v>81.613078</v>
+      </c>
+      <c r="O9">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P9">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q9">
+        <v>3.085046893358222</v>
+      </c>
+      <c r="R9">
+        <v>27.765422040224</v>
+      </c>
+      <c r="S9">
+        <v>0.009999446768599972</v>
+      </c>
+      <c r="T9">
+        <v>0.009999446768599974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.340208</v>
+      </c>
+      <c r="I10">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J10">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.916218</v>
+      </c>
+      <c r="N10">
+        <v>17.748654</v>
+      </c>
+      <c r="O10">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P10">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q10">
+        <v>0.6709148977813333</v>
+      </c>
+      <c r="R10">
+        <v>6.038234080032</v>
+      </c>
+      <c r="S10">
+        <v>0.00217461129069656</v>
+      </c>
+      <c r="T10">
+        <v>0.00217461129069656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.340208</v>
+      </c>
+      <c r="I11">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J11">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N11">
+        <v>18.03889</v>
+      </c>
+      <c r="O11">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P11">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q11">
+        <v>0.681886076568889</v>
+      </c>
+      <c r="R11">
+        <v>6.136974689120001</v>
+      </c>
+      <c r="S11">
+        <v>0.002210171760947803</v>
+      </c>
+      <c r="T11">
+        <v>0.002210171760947803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.340208</v>
+      </c>
+      <c r="I12">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J12">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N12">
+        <v>11.812205</v>
+      </c>
+      <c r="O12">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P12">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q12">
+        <v>0.4465118487377777</v>
+      </c>
+      <c r="R12">
+        <v>4.01860663864</v>
+      </c>
+      <c r="S12">
+        <v>0.001447262105679808</v>
+      </c>
+      <c r="T12">
+        <v>0.001447262105679808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.340208</v>
+      </c>
+      <c r="I13">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J13">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.981576</v>
+      </c>
+      <c r="N13">
+        <v>50.944728</v>
+      </c>
+      <c r="O13">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P13">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q13">
+        <v>1.925756002602667</v>
+      </c>
+      <c r="R13">
+        <v>17.331804023424</v>
+      </c>
+      <c r="S13">
+        <v>0.006241880691925436</v>
+      </c>
+      <c r="T13">
+        <v>0.006241880691925437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H14">
+        <v>8.161591</v>
+      </c>
+      <c r="I14">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J14">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N14">
+        <v>32.70673</v>
+      </c>
+      <c r="O14">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P14">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q14">
+        <v>29.65988368971444</v>
+      </c>
+      <c r="R14">
+        <v>266.93895320743</v>
+      </c>
+      <c r="S14">
+        <v>0.09613546839650203</v>
+      </c>
+      <c r="T14">
+        <v>0.09613546839650204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H15">
+        <v>8.161591</v>
+      </c>
+      <c r="I15">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J15">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N15">
+        <v>81.613078</v>
+      </c>
+      <c r="O15">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P15">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q15">
+        <v>74.0102847652331</v>
+      </c>
+      <c r="R15">
+        <v>666.092562887098</v>
+      </c>
+      <c r="S15">
+        <v>0.2398867597222423</v>
+      </c>
+      <c r="T15">
+        <v>0.2398867597222424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H16">
+        <v>8.161591</v>
+      </c>
+      <c r="I16">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J16">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.916218</v>
+      </c>
+      <c r="N16">
+        <v>17.748654</v>
+      </c>
+      <c r="O16">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P16">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q16">
+        <v>16.09525052761266</v>
+      </c>
+      <c r="R16">
+        <v>144.857254748514</v>
+      </c>
+      <c r="S16">
+        <v>0.05216893176717603</v>
+      </c>
+      <c r="T16">
+        <v>0.05216893176717603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H17">
+        <v>8.161591</v>
+      </c>
+      <c r="I17">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J17">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N17">
+        <v>18.03889</v>
+      </c>
+      <c r="O17">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P17">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q17">
+        <v>16.35844914155444</v>
+      </c>
+      <c r="R17">
+        <v>147.22604227399</v>
+      </c>
+      <c r="S17">
+        <v>0.05302202756139109</v>
+      </c>
+      <c r="T17">
+        <v>0.05302202756139109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.199627758573983</v>
-      </c>
-      <c r="H7">
-        <v>0.199627758573983</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.9326655377078</v>
-      </c>
-      <c r="N7">
-        <v>12.9326655377078</v>
-      </c>
-      <c r="O7">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="P7">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="Q7">
-        <v>2.581719033679603</v>
-      </c>
-      <c r="R7">
-        <v>2.581719033679603</v>
-      </c>
-      <c r="S7">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="T7">
-        <v>0.1999970314160101</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H18">
+        <v>8.161591</v>
+      </c>
+      <c r="I18">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J18">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N18">
+        <v>11.812205</v>
+      </c>
+      <c r="O18">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P18">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q18">
+        <v>10.71182066868389</v>
+      </c>
+      <c r="R18">
+        <v>96.40638601815499</v>
+      </c>
+      <c r="S18">
+        <v>0.03471982250963344</v>
+      </c>
+      <c r="T18">
+        <v>0.03471982250963344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H19">
+        <v>8.161591</v>
+      </c>
+      <c r="I19">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J19">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.981576</v>
+      </c>
+      <c r="N19">
+        <v>50.944728</v>
+      </c>
+      <c r="O19">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P19">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q19">
+        <v>46.19889261580533</v>
+      </c>
+      <c r="R19">
+        <v>415.790033542248</v>
+      </c>
+      <c r="S19">
+        <v>0.1497427376143195</v>
+      </c>
+      <c r="T19">
+        <v>0.1497427376143195</v>
       </c>
     </row>
   </sheetData>
